--- a/Data/EC/NIT-8904803080.xlsx
+++ b/Data/EC/NIT-8904803080.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D863EE-CC8B-4F20-B8FF-9B3B748531BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C6E50E-45AA-43C3-BFF9-ED5D6F3F85D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A86F9945-4107-4836-9633-AA049C785B83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4440B396-39C7-44DC-854A-F184A16E26E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="137">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,382 +71,349 @@
     <t>DANIEL ARRIETA LOPEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>272727</t>
+  </si>
+  <si>
+    <t>YOLEMNY RIVERA LOREDO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>20645080</t>
+  </si>
+  <si>
+    <t>AURA MERCEDES PRIETO DIAZ</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>272727</t>
-  </si>
-  <si>
-    <t>YOLEMNY RIVERA LOREDO</t>
-  </si>
-  <si>
-    <t>73098904</t>
-  </si>
-  <si>
-    <t>ORLANDO ELIAS HERNANDEZ RAMOS</t>
-  </si>
-  <si>
-    <t>52865230</t>
-  </si>
-  <si>
-    <t>ROSANA SALGADO CRUZ</t>
-  </si>
-  <si>
-    <t>21070810</t>
-  </si>
-  <si>
-    <t>GLORIA DEL SOCORRO DURAN DE BOZZI</t>
-  </si>
-  <si>
-    <t>22774659</t>
-  </si>
-  <si>
-    <t>LAURINA CABALLERO DE DIAZ</t>
-  </si>
-  <si>
-    <t>79753125</t>
-  </si>
-  <si>
-    <t>LAURENCIO PALACIOS HOLGUIN</t>
-  </si>
-  <si>
-    <t>1047505958</t>
-  </si>
-  <si>
-    <t>MARIA ANGELICA AGUILERA CHACON</t>
-  </si>
-  <si>
-    <t>20645080</t>
-  </si>
-  <si>
-    <t>AURA MERCEDES PRIETO DIAZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +512,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -558,9 +527,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -760,23 +727,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,10 +771,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,7 +827,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA24C1C-0ABB-6566-A412-32CAF6DAE5BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC97E77E-A3F1-5472-4C42-3DE393C42B16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,8 +1178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43334BDC-6D9D-409E-B90C-584BC714B67B}">
-  <dimension ref="B2:J248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D034C5-F9EB-41F9-A3F0-ABEABCDFD130}">
+  <dimension ref="B2:J242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1223,7 +1190,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1236,7 +1203,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1281,7 +1248,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1313,12 +1280,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12291795</v>
+        <v>11761669</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1329,17 +1296,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1366,13 +1333,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1400,22 +1367,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G17" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1432,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>34750</v>
@@ -1446,22 +1413,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G19" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1478,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>34750</v>
@@ -1492,22 +1459,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G21" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1538,22 +1505,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G23" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1570,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>34750</v>
@@ -1584,22 +1551,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G25" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1616,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>34750</v>
@@ -1630,22 +1597,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G27" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1662,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>34750</v>
@@ -1676,22 +1643,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G29" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1708,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>34750</v>
@@ -1722,22 +1689,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G31" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1754,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>34750</v>
@@ -1768,22 +1735,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G33" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1794,19 +1761,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>34750</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>868750</v>
+        <v>737717</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1823,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
         <v>34750</v>
@@ -1837,22 +1804,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G36" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1869,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>34750</v>
@@ -1883,22 +1850,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G38" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1915,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>34750</v>
@@ -1929,22 +1896,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G40" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1961,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>34750</v>
@@ -1975,22 +1942,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G42" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2007,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
         <v>34750</v>
@@ -2021,22 +1988,22 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G44" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2053,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
         <v>34750</v>
@@ -2067,22 +2034,22 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G46" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2099,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F47" s="18">
         <v>34750</v>
@@ -2113,22 +2080,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G48" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2145,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
         <v>34750</v>
@@ -2159,22 +2126,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F50" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G50" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2191,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F51" s="18">
         <v>34750</v>
@@ -2205,22 +2172,22 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F52" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G52" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2237,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
         <v>34750</v>
@@ -2251,22 +2218,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F54" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G54" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2283,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F55" s="18">
         <v>34750</v>
@@ -2297,22 +2264,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F56" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G56" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2329,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18">
         <v>34750</v>
@@ -2343,22 +2310,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G58" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2375,7 +2342,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
         <v>34750</v>
@@ -2389,22 +2356,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G60" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2421,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F61" s="18">
         <v>34750</v>
@@ -2435,22 +2402,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F62" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G62" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2467,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F63" s="18">
         <v>34750</v>
@@ -2481,22 +2448,22 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F64" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G64" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2513,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
         <v>34750</v>
@@ -2527,22 +2494,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F66" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G66" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2559,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
         <v>34750</v>
@@ -2573,22 +2540,22 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G68" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2605,7 +2572,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F69" s="18">
         <v>34750</v>
@@ -2619,22 +2586,22 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F70" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G70" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2651,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
         <v>34750</v>
@@ -2665,22 +2632,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F72" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G72" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2697,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F73" s="18">
         <v>34750</v>
@@ -2711,22 +2678,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F74" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G74" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2743,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F75" s="18">
         <v>34750</v>
@@ -2757,22 +2724,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F76" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G76" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2789,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F77" s="18">
         <v>34750</v>
@@ -2803,22 +2770,22 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F78" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G78" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2835,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F79" s="18">
         <v>34750</v>
@@ -2849,22 +2816,22 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F80" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G80" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2881,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F81" s="18">
         <v>34750</v>
@@ -2895,22 +2862,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F82" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G82" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2927,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
         <v>34750</v>
@@ -2941,22 +2908,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F84" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G84" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2973,7 +2940,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F85" s="18">
         <v>34750</v>
@@ -2987,22 +2954,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F86" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G86" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3019,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F87" s="18">
         <v>34750</v>
@@ -3033,22 +3000,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F88" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G88" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3065,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F89" s="18">
         <v>34750</v>
@@ -3079,22 +3046,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F90" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G90" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3111,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F91" s="18">
         <v>34750</v>
@@ -3125,22 +3092,22 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F92" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G92" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3157,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F93" s="18">
         <v>34750</v>
@@ -3171,22 +3138,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F94" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G94" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3203,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F95" s="18">
         <v>34750</v>
@@ -3217,22 +3184,22 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F96" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G96" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3249,7 +3216,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F97" s="18">
         <v>34750</v>
@@ -3263,22 +3230,22 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F98" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G98" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3295,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F99" s="18">
         <v>34750</v>
@@ -3309,22 +3276,22 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F100" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G100" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3341,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F101" s="18">
         <v>34750</v>
@@ -3355,22 +3322,22 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F102" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G102" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3387,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F103" s="18">
         <v>34750</v>
@@ -3401,22 +3368,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="F104" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G104" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3433,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F105" s="18">
         <v>34750</v>
@@ -3447,22 +3414,22 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F106" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G106" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3479,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="F107" s="18">
         <v>34750</v>
@@ -3493,22 +3460,22 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F108" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G108" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3525,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F109" s="18">
         <v>34750</v>
@@ -3539,22 +3506,22 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F110" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G110" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3571,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F111" s="18">
         <v>34750</v>
@@ -3585,22 +3552,22 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F112" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G112" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3617,7 +3584,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F113" s="18">
         <v>34750</v>
@@ -3631,22 +3598,22 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F114" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G114" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3663,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F115" s="18">
         <v>34750</v>
@@ -3677,22 +3644,22 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F116" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G116" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3709,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F117" s="18">
         <v>34750</v>
@@ -3723,22 +3690,22 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F118" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G118" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3755,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F119" s="18">
         <v>34750</v>
@@ -3769,22 +3736,22 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F120" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G120" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3801,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F121" s="18">
         <v>34750</v>
@@ -3815,22 +3782,22 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F122" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G122" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3847,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F123" s="18">
         <v>34750</v>
@@ -3861,22 +3828,22 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="F124" s="18">
-        <v>34750</v>
+        <v>71906</v>
       </c>
       <c r="G124" s="18">
-        <v>868750</v>
+        <v>1797652</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3884,22 +3851,22 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F125" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G125" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3907,16 +3874,16 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F126" s="18">
         <v>71906</v>
@@ -3930,22 +3897,22 @@
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F127" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G127" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3953,16 +3920,16 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F128" s="18">
         <v>71906</v>
@@ -3976,22 +3943,22 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F129" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G129" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3999,16 +3966,16 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F130" s="18">
         <v>71906</v>
@@ -4022,22 +3989,22 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F131" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G131" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4045,16 +4012,16 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F132" s="18">
         <v>71906</v>
@@ -4068,22 +4035,22 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F133" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G133" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4091,16 +4058,16 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F134" s="18">
         <v>71906</v>
@@ -4114,22 +4081,22 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F135" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G135" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4137,16 +4104,16 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F136" s="18">
         <v>71906</v>
@@ -4160,22 +4127,22 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F137" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G137" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4183,16 +4150,16 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F138" s="18">
         <v>71906</v>
@@ -4206,22 +4173,22 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F139" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G139" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4229,16 +4196,16 @@
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F140" s="18">
         <v>71906</v>
@@ -4252,22 +4219,22 @@
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F141" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G141" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4275,16 +4242,16 @@
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F142" s="18">
         <v>71906</v>
@@ -4298,22 +4265,22 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F143" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G143" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4321,16 +4288,16 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F144" s="18">
         <v>71906</v>
@@ -4344,22 +4311,22 @@
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F145" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G145" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4367,16 +4334,16 @@
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F146" s="18">
         <v>71906</v>
@@ -4390,22 +4357,22 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F147" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G147" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4413,16 +4380,16 @@
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F148" s="18">
         <v>71906</v>
@@ -4436,22 +4403,22 @@
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F149" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G149" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4459,16 +4426,16 @@
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F150" s="18">
         <v>71906</v>
@@ -4482,22 +4449,22 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F151" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G151" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4505,16 +4472,16 @@
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F152" s="18">
         <v>71906</v>
@@ -4528,22 +4495,22 @@
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F153" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G153" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4551,16 +4518,16 @@
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F154" s="18">
         <v>71906</v>
@@ -4574,22 +4541,22 @@
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F155" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G155" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4597,16 +4564,16 @@
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F156" s="18">
         <v>71906</v>
@@ -4620,22 +4587,22 @@
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F157" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G157" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4643,16 +4610,16 @@
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F158" s="18">
         <v>71906</v>
@@ -4666,22 +4633,22 @@
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F159" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G159" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4689,16 +4656,16 @@
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F160" s="18">
         <v>71906</v>
@@ -4712,22 +4679,22 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F161" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G161" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4735,16 +4702,16 @@
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F162" s="18">
         <v>71906</v>
@@ -4758,22 +4725,22 @@
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F163" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G163" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4781,16 +4748,16 @@
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F164" s="18">
         <v>71906</v>
@@ -4804,22 +4771,22 @@
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F165" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G165" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4827,16 +4794,16 @@
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F166" s="18">
         <v>71906</v>
@@ -4850,22 +4817,22 @@
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F167" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G167" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4873,16 +4840,16 @@
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F168" s="18">
         <v>71906</v>
@@ -4896,22 +4863,22 @@
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F169" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G169" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4919,16 +4886,16 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F170" s="18">
         <v>71906</v>
@@ -4942,22 +4909,22 @@
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F171" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G171" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4965,16 +4932,16 @@
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F172" s="18">
         <v>71906</v>
@@ -4988,22 +4955,22 @@
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F173" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G173" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5011,16 +4978,16 @@
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F174" s="18">
         <v>71906</v>
@@ -5034,22 +5001,22 @@
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F175" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G175" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5057,16 +5024,16 @@
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F176" s="18">
         <v>71906</v>
@@ -5080,22 +5047,22 @@
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F177" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G177" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5103,16 +5070,16 @@
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F178" s="18">
         <v>71906</v>
@@ -5126,22 +5093,22 @@
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F179" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G179" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5149,16 +5116,16 @@
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F180" s="18">
         <v>71906</v>
@@ -5172,22 +5139,22 @@
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F181" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G181" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5195,16 +5162,16 @@
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F182" s="18">
         <v>71906</v>
@@ -5218,22 +5185,22 @@
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F183" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G183" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5241,16 +5208,16 @@
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F184" s="18">
         <v>71906</v>
@@ -5264,22 +5231,22 @@
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F185" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G185" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5287,16 +5254,16 @@
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F186" s="18">
         <v>71906</v>
@@ -5310,22 +5277,22 @@
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F187" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G187" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5333,16 +5300,16 @@
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F188" s="18">
         <v>71906</v>
@@ -5356,22 +5323,22 @@
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F189" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G189" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5379,16 +5346,16 @@
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F190" s="18">
         <v>71906</v>
@@ -5402,22 +5369,22 @@
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F191" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G191" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5425,16 +5392,16 @@
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F192" s="18">
         <v>71906</v>
@@ -5448,22 +5415,22 @@
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F193" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G193" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5471,16 +5438,16 @@
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F194" s="18">
         <v>71906</v>
@@ -5494,22 +5461,22 @@
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F195" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G195" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5517,16 +5484,16 @@
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F196" s="18">
         <v>71906</v>
@@ -5540,22 +5507,22 @@
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F197" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G197" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5563,16 +5530,16 @@
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F198" s="18">
         <v>71906</v>
@@ -5586,22 +5553,22 @@
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F199" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G199" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5609,16 +5576,16 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F200" s="18">
         <v>71906</v>
@@ -5632,22 +5599,22 @@
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F201" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G201" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5655,16 +5622,16 @@
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F202" s="18">
         <v>71906</v>
@@ -5678,22 +5645,22 @@
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F203" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G203" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5701,16 +5668,16 @@
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F204" s="18">
         <v>71906</v>
@@ -5724,22 +5691,22 @@
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F205" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G205" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5747,16 +5714,16 @@
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F206" s="18">
         <v>71906</v>
@@ -5770,22 +5737,22 @@
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F207" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G207" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5793,16 +5760,16 @@
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F208" s="18">
         <v>71906</v>
@@ -5816,22 +5783,22 @@
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F209" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G209" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5839,16 +5806,16 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F210" s="18">
         <v>71906</v>
@@ -5862,22 +5829,22 @@
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F211" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G211" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5885,16 +5852,16 @@
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F212" s="18">
         <v>71906</v>
@@ -5908,22 +5875,22 @@
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F213" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G213" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5931,16 +5898,16 @@
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F214" s="18">
         <v>71906</v>
@@ -5954,22 +5921,22 @@
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F215" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G215" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5977,16 +5944,16 @@
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F216" s="18">
         <v>71906</v>
@@ -6000,22 +5967,22 @@
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F217" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G217" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6023,16 +5990,16 @@
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F218" s="18">
         <v>71906</v>
@@ -6046,22 +6013,22 @@
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F219" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G219" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6069,16 +6036,16 @@
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F220" s="18">
         <v>71906</v>
@@ -6092,22 +6059,22 @@
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F221" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G221" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6115,16 +6082,16 @@
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F222" s="18">
         <v>71906</v>
@@ -6138,22 +6105,22 @@
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F223" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G223" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6161,16 +6128,16 @@
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F224" s="18">
         <v>71906</v>
@@ -6184,22 +6151,22 @@
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C225" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="F225" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G225" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6207,16 +6174,16 @@
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F226" s="18">
         <v>71906</v>
@@ -6230,22 +6197,22 @@
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D227" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="F227" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G227" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6253,16 +6220,16 @@
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C228" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E228" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="F228" s="18">
         <v>71906</v>
@@ -6276,22 +6243,22 @@
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E229" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="F229" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G229" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6299,16 +6266,16 @@
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D230" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="F230" s="18">
         <v>71906</v>
@@ -6322,22 +6289,22 @@
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F231" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G231" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6345,16 +6312,16 @@
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F232" s="18">
         <v>71906</v>
@@ -6368,22 +6335,22 @@
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F233" s="18">
-        <v>71906</v>
+        <v>34750</v>
       </c>
       <c r="G233" s="18">
-        <v>1797652</v>
+        <v>868750</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6391,22 +6358,22 @@
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D234" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E234" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F234" s="18">
-        <v>129792</v>
+        <v>71906</v>
       </c>
       <c r="G234" s="18">
-        <v>3244800</v>
+        <v>1797652</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6417,213 +6384,75 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D235" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F235" s="18">
-        <v>46400</v>
+        <v>34750</v>
       </c>
       <c r="G235" s="18">
-        <v>820000</v>
+        <v>868750</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
       <c r="J235" s="20"/>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B236" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="16" t="s">
+      <c r="B236" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D236" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E236" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G236" s="18">
-        <v>820000</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B237" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D237" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E237" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G237" s="18">
-        <v>820000</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B238" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D238" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F238" s="18">
-        <v>168205</v>
-      </c>
-      <c r="G238" s="18">
-        <v>4205118</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D239" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F239" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G239" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="18">
-        <v>111396</v>
-      </c>
-      <c r="G240" s="18">
-        <v>2784886</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
+      <c r="F236" s="24">
+        <v>71906</v>
+      </c>
+      <c r="G236" s="24">
+        <v>1797652</v>
+      </c>
+      <c r="H236" s="25"/>
+      <c r="I236" s="25"/>
+      <c r="J236" s="26"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D241" s="17" t="s">
+      <c r="B241" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C241" s="32"/>
+      <c r="H241" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E241" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F241" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G241" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B242" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C242" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D242" s="23" t="s">
+      <c r="C242" s="32"/>
+      <c r="H242" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E242" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F242" s="24">
-        <v>29509</v>
-      </c>
-      <c r="G242" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H242" s="25"/>
-      <c r="I242" s="25"/>
-      <c r="J242" s="26"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B247" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C247" s="32"/>
-      <c r="H247" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C248" s="32"/>
-      <c r="H248" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="H248:J248"/>
-    <mergeCell ref="H247:J247"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="H242:J242"/>
+    <mergeCell ref="H241:J241"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
